--- a/_doc/_ 커리큘럼, 인터뷰, 포트폴리오, 프로필 _/유니티 기초 커리큘럼 _ 이운재/유니티 강좌 커리큘럼 요약 - Jackie.xlsx
+++ b/_doc/_ 커리큘럼, 인터뷰, 포트폴리오, 프로필 _/유니티 기초 커리큘럼 _ 이운재/유니티 강좌 커리큘럼 요약 - Jackie.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J4\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Work\_Reference\StudyData\_doc\_ 커리큘럼, 인터뷰, 포트폴리오, 프로필 _\유니티 기초 커리큘럼 _ 이운재\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DE28C1-CE59-4A8D-8D93-9D3B464FAB12}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12405"/>
+    <workbookView xWindow="75" yWindow="6060" windowWidth="30600" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유니티의 주요 이벤트 함수와 실행 순서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유니티 에디터의 주요 작업 요소와 스크립트 인터페이스를 훑어보며
 작업환경에 대해 학습합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,14 +296,31 @@
   <si>
     <t>수업 커리큘럼 정리
 ( https://m.blog.naver.com/nicecapj/130167738132 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://programmers.co.kr/learn/courses/1/lessons/81#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://programmers.co.kr/learn/courses/1/lessons/83#
+https://programmers.co.kr/learn/courses/1/lessons/511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티의 주요 이벤트 함수와 실행 순서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +351,15 @@
       <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -379,7 +402,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -572,26 +595,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,16 +689,40 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -710,12 +747,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -727,36 +758,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1033,11 +1056,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1047,23 +1070,24 @@
     <col min="3" max="3" width="39.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.5" customWidth="1"/>
     <col min="5" max="5" width="63.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1072,345 +1096,376 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="38">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="46">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="45"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="52"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="39"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="41"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="47"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="20" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="35">
+        <v>10</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="43">
         <v>2</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="50" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="56" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="48" t="s">
+      <c r="E6" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="44"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="49"/>
+      <c r="F7" s="54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="44"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="55" t="s">
+        <v>69</v>
+      </c>
       <c r="E8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="45"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="38">
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="46">
         <v>3</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="40" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="48"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="52"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="52"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="52"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="43"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="43"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="18" t="s">
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="47"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="44"/>
-    </row>
-    <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="39"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="22" t="s">
+      <c r="D14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="E14" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="44">
+        <v>4</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="36">
-        <v>4</v>
-      </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="45"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="37"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="46">
+        <v>5</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="38">
-        <v>5</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="E17" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="47"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="39"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="23" t="s">
+      <c r="D18" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="E18" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="35">
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="43">
         <v>6</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="D19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="44"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="13" t="s">
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+    </row>
+    <row r="21" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="45"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="33"/>
-    </row>
-    <row r="21" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="37"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="34"/>
-    </row>
-    <row r="22" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>7</v>
       </c>
-      <c r="B22" s="30"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="E22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="24"/>
+    </row>
+    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>8</v>
       </c>
-      <c r="B23" s="30"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="46">
+        <v>9</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="38">
-        <v>9</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="E24" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="47"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="39"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="23" t="s">
+      <c r="D25" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="E25" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>10</v>
       </c>
-      <c r="B26" s="30"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="E26" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="28" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="38" t="s">
+      <c r="D27" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="47"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="39"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E29" s="27" t="s">
+      <c r="F28" s="23"/>
+    </row>
+    <row r="29" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="27" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B3:B18"/>
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="22">
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="D6:D7"/>
     <mergeCell ref="B19:B28"/>
     <mergeCell ref="E19:E21"/>
     <mergeCell ref="C19:C21"/>
@@ -1419,6 +1474,10 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B3:B18"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="A6:A9"/>
@@ -1428,7 +1487,11 @@
     <mergeCell ref="A3:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{192DA7CD-79CA-41DE-84B2-27FFF2CE39FA}"/>
+    <hyperlink ref="F7" r:id="rId2" display="https://programmers.co.kr/learn/courses/1/lessons/83#" xr:uid="{83AEF10D-6640-4066-BED0-037AD0D94291}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/_doc/_ 커리큘럼, 인터뷰, 포트폴리오, 프로필 _/유니티 기초 커리큘럼 _ 이운재/유니티 강좌 커리큘럼 요약 - Jackie.xlsx
+++ b/_doc/_ 커리큘럼, 인터뷰, 포트폴리오, 프로필 _/유니티 기초 커리큘럼 _ 이운재/유니티 강좌 커리큘럼 요약 - Jackie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Work\_Reference\StudyData\_doc\_ 커리큘럼, 인터뷰, 포트폴리오, 프로필 _\유니티 기초 커리큘럼 _ 이운재\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DE28C1-CE59-4A8D-8D93-9D3B464FAB12}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D0FC42-3DFD-4FA5-87C0-9887AFB0D316}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="75" yWindow="6060" windowWidth="30600" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +313,30 @@
   </si>
   <si>
     <t>유니티의 주요 이벤트 함수와 실행 순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://programmers.co.kr/learn/courses/1/lessons/510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://programmers.co.kr/learn/courses/1/lessons/562#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://programmers.co.kr/learn/courses/1/lessons/520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://programmers.co.kr/learn/courses/1/lessons/521</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://programmers.co.kr/learn/courses/1/lessons/701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://programmers.co.kr/learn/courses/1/lessons/563</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +628,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -625,9 +649,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -775,6 +796,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1059,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1074,13 +1110,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1103,361 +1139,373 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="46">
+      <c r="A3" s="45">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="18" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="47"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="20" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="52" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="43">
+    <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="42">
         <v>2</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="32" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="8" t="s">
+      <c r="F6" s="53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="43"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="54" t="s">
-        <v>68</v>
-      </c>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="55" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="45"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="9" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="46">
+      <c r="A10" s="45">
         <v>3</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="28" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="48"/>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="18" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="18" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="18" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
     </row>
     <row r="14" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="47"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="22" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="57" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="44">
+      <c r="A15" s="43">
         <v>4</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="60" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="45"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="10" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="46">
+      <c r="A17" s="45">
         <v>5</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="17" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="59" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="47"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="23" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="23"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="43">
+      <c r="A19" s="42">
         <v>6</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="39" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="13" t="s">
+      <c r="A20" s="43"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="45"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="9" t="s">
+      <c r="A21" s="44"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
     </row>
     <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>7</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="24" t="s">
+      <c r="B22" s="35"/>
+      <c r="C22" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="24"/>
+      <c r="F22" s="56" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>8</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="F23" s="58" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="46">
+      <c r="A24" s="45">
         <v>9</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="17" t="s">
+      <c r="B24" s="35"/>
+      <c r="C24" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="17"/>
+      <c r="F24" s="59" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="47"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="23" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>10</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="14" t="s">
+      <c r="B26" s="35"/>
+      <c r="C26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="14"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="28" t="s">
+      <c r="B27" s="35"/>
+      <c r="C27" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="26"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="47"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="23" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="26" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1489,9 +1537,15 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" xr:uid="{192DA7CD-79CA-41DE-84B2-27FFF2CE39FA}"/>
-    <hyperlink ref="F7" r:id="rId2" display="https://programmers.co.kr/learn/courses/1/lessons/83#" xr:uid="{83AEF10D-6640-4066-BED0-037AD0D94291}"/>
+    <hyperlink ref="F22" r:id="rId2" xr:uid="{2FFC04C5-3D2C-4E98-911B-CEAD281401B7}"/>
+    <hyperlink ref="F6" r:id="rId3" display="https://programmers.co.kr/learn/courses/1/lessons/83#" xr:uid="{C78F9C06-6FCA-4D4B-8DDE-4966B6347296}"/>
+    <hyperlink ref="F14" r:id="rId4" xr:uid="{93AC9FAE-242B-4C61-945E-0A47C21586FD}"/>
+    <hyperlink ref="F23" r:id="rId5" xr:uid="{B057180A-76AC-4D70-B475-0980E061D46B}"/>
+    <hyperlink ref="F24" r:id="rId6" xr:uid="{AC2460A6-8DBF-402F-9B3A-8323C67B24E6}"/>
+    <hyperlink ref="F15" r:id="rId7" xr:uid="{99B854A1-8DA4-4362-BD1D-606C682A24C0}"/>
+    <hyperlink ref="F17" r:id="rId8" xr:uid="{63F6EBD3-409C-4A70-9864-8A3A8F2BEA91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>